--- a/Preprocessed_Student_Mental_Health.xlsx
+++ b/Preprocessed_Student_Mental_Health.xlsx
@@ -436,743 +436,743 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Gender_Male</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Course_BCS</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Course_BIT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Course_Banking Studies</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Course_Business Administration</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Course_ENM</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Course_Engineering</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Course_Human Resources</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Course_Irkhs</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Course_Islamic education</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Course_KENMS</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Course_KIRKHS</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Course_KOE</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Course_Law</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Course_Laws</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Course_Marine science</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Course_Mathemathics</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Course_Pendidikan islam</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Course_Psychology</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Course_TAASL</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Course_Usuluddin </t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_Year 2</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_Year 3</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 1</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 10</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 11</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 12</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 13</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 14</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 15</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 16</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 17</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 18</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 19</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 20</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 21</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 22</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 23</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 24</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 25</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 26</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 27</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 28</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 29</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 3</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 30</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 31</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 32</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 33</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 34</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 35</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 36</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 37</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 38</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 39</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 4</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 40</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 41</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 42</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 43</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 44</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 45</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 46</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 47</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 48</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 49</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 5</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 50</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 51</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 52</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 53</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 54</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 55</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 56</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 57</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 58</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 6</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 7</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 8</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>Year of Study_year 9</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>CGPA_2.50 - 2.99</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.00 - 3.49</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.00</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">CGPA_3.50 - 4.00 </t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.01</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.02</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.03</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.04</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.05</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.06</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.07</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.08</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.09</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.10</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.11</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.12</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.13</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.14</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.15</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.16</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.17</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.18</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.19</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.20</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.21</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.22</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.23</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.24</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.25</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.26</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.27</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.28</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.29</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.30</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.31</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.32</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.33</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.34</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.35</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.36</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.37</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.38</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.39</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.40</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.41</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.42</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.43</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.44</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.45</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.46</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.47</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.48</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.49</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.50</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.51</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.52</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.53</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.54</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.55</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>CGPA_3.50 - 4.56</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>Marital Status_Yes</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>Depression_Yes</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>Anxiety_Yes</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>Panic Attack_Yes</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>Specialist Treatment_Yes</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1241,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG2" t="n">
         <v>0</v>
@@ -1598,27 +1598,27 @@
         <v>0</v>
       </c>
       <c r="EM2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -1717,10 +1717,10 @@
         <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK3" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG3" t="n">
         <v>0</v>
@@ -2044,30 +2044,30 @@
         <v>0</v>
       </c>
       <c r="EN3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP3" t="n">
         <v>0</v>
       </c>
       <c r="EQ3" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG4" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="EM4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN4" t="n">
         <v>1</v>
@@ -2493,15 +2493,15 @@
         <v>1</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ4" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -2543,10 +2543,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -2636,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV5" t="n">
         <v>0</v>
@@ -2747,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG5" t="n">
         <v>0</v>
@@ -2924,13 +2924,13 @@
         <v>0</v>
       </c>
       <c r="EL5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM5" t="n">
         <v>1</v>
       </c>
       <c r="EN5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO5" t="n">
         <v>0</v>
@@ -2939,15 +2939,15 @@
         <v>0</v>
       </c>
       <c r="EQ5" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -3112,10 +3112,10 @@
         <v>0</v>
       </c>
       <c r="BE6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6" t="n">
         <v>0</v>
@@ -3190,10 +3190,10 @@
         <v>0</v>
       </c>
       <c r="CE6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG6" t="n">
         <v>0</v>
@@ -3382,15 +3382,15 @@
         <v>0</v>
       </c>
       <c r="EQ6" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -3405,10 +3405,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -3450,10 +3450,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -3636,10 +3636,10 @@
         <v>0</v>
       </c>
       <c r="CF7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH7" t="n">
         <v>0</v>
@@ -3819,18 +3819,18 @@
         <v>0</v>
       </c>
       <c r="EO7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ7" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -3932,10 +3932,10 @@
         <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
@@ -4082,10 +4082,10 @@
         <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI8" t="n">
         <v>0</v>
@@ -4253,33 +4253,33 @@
         <v>0</v>
       </c>
       <c r="EL8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM8" t="n">
         <v>1</v>
       </c>
       <c r="EN8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ8" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -4522,10 +4522,10 @@
         <v>0</v>
       </c>
       <c r="CF9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH9" t="n">
         <v>0</v>
@@ -4702,21 +4702,21 @@
         <v>0</v>
       </c>
       <c r="EN9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP9" t="n">
         <v>0</v>
       </c>
       <c r="EQ9" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -4737,10 +4737,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -4779,10 +4779,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -4959,10 +4959,10 @@
         <v>0</v>
       </c>
       <c r="CD10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF10" t="n">
         <v>0</v>
@@ -5154,15 +5154,15 @@
         <v>0</v>
       </c>
       <c r="EQ10" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -5183,10 +5183,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -5228,10 +5228,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -5408,10 +5408,10 @@
         <v>0</v>
       </c>
       <c r="CF11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH11" t="n">
         <v>0</v>
@@ -5588,21 +5588,21 @@
         <v>0</v>
       </c>
       <c r="EN11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO11" t="n">
         <v>1</v>
       </c>
       <c r="EP11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ11" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -5656,10 +5656,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -5671,10 +5671,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
@@ -5851,10 +5851,10 @@
         <v>0</v>
       </c>
       <c r="CF12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH12" t="n">
         <v>0</v>
@@ -6040,12 +6040,12 @@
         <v>0</v>
       </c>
       <c r="EQ12" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -6063,10 +6063,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -6111,10 +6111,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -6294,10 +6294,10 @@
         <v>0</v>
       </c>
       <c r="CF13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH13" t="n">
         <v>0</v>
@@ -6468,13 +6468,13 @@
         <v>0</v>
       </c>
       <c r="EL13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM13" t="n">
         <v>1</v>
       </c>
       <c r="EN13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO13" t="n">
         <v>0</v>
@@ -6483,18 +6483,18 @@
         <v>0</v>
       </c>
       <c r="EQ13" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -6557,10 +6557,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
@@ -6734,10 +6734,10 @@
         <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG14" t="n">
         <v>0</v>
@@ -6914,10 +6914,10 @@
         <v>0</v>
       </c>
       <c r="EM14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO14" t="n">
         <v>0</v>
@@ -6926,15 +6926,15 @@
         <v>0</v>
       </c>
       <c r="EQ14" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -6949,10 +6949,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -7000,10 +7000,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
@@ -7177,10 +7177,10 @@
         <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG15" t="n">
         <v>0</v>
@@ -7369,12 +7369,12 @@
         <v>0</v>
       </c>
       <c r="EQ15" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -7404,10 +7404,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -7437,10 +7437,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -7623,10 +7623,10 @@
         <v>0</v>
       </c>
       <c r="CF16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH16" t="n">
         <v>0</v>
@@ -7803,27 +7803,27 @@
         <v>0</v>
       </c>
       <c r="EN16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP16" t="n">
         <v>0</v>
       </c>
       <c r="EQ16" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -7883,10 +7883,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -8066,10 +8066,10 @@
         <v>0</v>
       </c>
       <c r="CF17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH17" t="n">
         <v>0</v>
@@ -8255,12 +8255,12 @@
         <v>0</v>
       </c>
       <c r="EQ17" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -8395,10 +8395,10 @@
         <v>0</v>
       </c>
       <c r="AT18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV18" t="n">
         <v>0</v>
@@ -8506,10 +8506,10 @@
         <v>0</v>
       </c>
       <c r="CE18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG18" t="n">
         <v>0</v>
@@ -8698,12 +8698,12 @@
         <v>0</v>
       </c>
       <c r="EQ18" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -8718,10 +8718,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -8871,10 +8871,10 @@
         <v>0</v>
       </c>
       <c r="BE19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG19" t="n">
         <v>0</v>
@@ -8949,10 +8949,10 @@
         <v>0</v>
       </c>
       <c r="CE19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG19" t="n">
         <v>0</v>
@@ -9126,7 +9126,7 @@
         <v>0</v>
       </c>
       <c r="EL19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM19" t="n">
         <v>1</v>
@@ -9138,24 +9138,24 @@
         <v>1</v>
       </c>
       <c r="EP19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ19" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -9209,10 +9209,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -9395,10 +9395,10 @@
         <v>0</v>
       </c>
       <c r="CF20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH20" t="n">
         <v>0</v>
@@ -9575,21 +9575,21 @@
         <v>0</v>
       </c>
       <c r="EN20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP20" t="n">
         <v>0</v>
       </c>
       <c r="EQ20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -9634,10 +9634,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9691,10 +9691,10 @@
         <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK21" t="n">
         <v>0</v>
@@ -9838,10 +9838,10 @@
         <v>0</v>
       </c>
       <c r="CF21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH21" t="n">
         <v>0</v>
@@ -10012,7 +10012,7 @@
         <v>0</v>
       </c>
       <c r="EL21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM21" t="n">
         <v>1</v>
@@ -10024,15 +10024,15 @@
         <v>1</v>
       </c>
       <c r="EP21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ21" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -10050,10 +10050,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -10101,10 +10101,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
@@ -10278,10 +10278,10 @@
         <v>0</v>
       </c>
       <c r="CE22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG22" t="n">
         <v>0</v>
@@ -10464,18 +10464,18 @@
         <v>0</v>
       </c>
       <c r="EO22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ22" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -10511,10 +10511,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -10538,10 +10538,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -10721,10 +10721,10 @@
         <v>0</v>
       </c>
       <c r="CE23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG23" t="n">
         <v>0</v>
@@ -10913,18 +10913,18 @@
         <v>0</v>
       </c>
       <c r="EQ23" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -10987,10 +10987,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
@@ -11167,10 +11167,10 @@
         <v>0</v>
       </c>
       <c r="CF24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH24" t="n">
         <v>0</v>
@@ -11356,12 +11356,12 @@
         <v>0</v>
       </c>
       <c r="EQ24" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -11379,10 +11379,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -11430,10 +11430,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -11607,10 +11607,10 @@
         <v>0</v>
       </c>
       <c r="CE25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG25" t="n">
         <v>0</v>
@@ -11799,18 +11799,18 @@
         <v>0</v>
       </c>
       <c r="EQ25" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -11870,10 +11870,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -12053,10 +12053,10 @@
         <v>0</v>
       </c>
       <c r="CF26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH26" t="n">
         <v>0</v>
@@ -12230,7 +12230,7 @@
         <v>0</v>
       </c>
       <c r="EM26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN26" t="n">
         <v>1</v>
@@ -12239,15 +12239,15 @@
         <v>1</v>
       </c>
       <c r="EP26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ26" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -12256,10 +12256,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -12316,10 +12316,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
@@ -12496,10 +12496,10 @@
         <v>0</v>
       </c>
       <c r="CF27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH27" t="n">
         <v>0</v>
@@ -12685,12 +12685,12 @@
         <v>0</v>
       </c>
       <c r="EQ27" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -12708,10 +12708,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -12759,10 +12759,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28" t="n">
         <v>0</v>
@@ -12939,10 +12939,10 @@
         <v>0</v>
       </c>
       <c r="CF28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH28" t="n">
         <v>0</v>
@@ -13128,15 +13128,15 @@
         <v>0</v>
       </c>
       <c r="EQ28" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -13151,10 +13151,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -13196,10 +13196,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -13379,10 +13379,10 @@
         <v>0</v>
       </c>
       <c r="CE29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG29" t="n">
         <v>0</v>
@@ -13556,7 +13556,7 @@
         <v>0</v>
       </c>
       <c r="EL29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM29" t="n">
         <v>1</v>
@@ -13565,27 +13565,27 @@
         <v>1</v>
       </c>
       <c r="EO29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP29" t="n">
         <v>0</v>
       </c>
       <c r="EQ29" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -13642,10 +13642,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -13825,10 +13825,10 @@
         <v>0</v>
       </c>
       <c r="CF30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH30" t="n">
         <v>0</v>
@@ -13999,7 +13999,7 @@
         <v>0</v>
       </c>
       <c r="EL30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM30" t="n">
         <v>1</v>
@@ -14014,18 +14014,18 @@
         <v>1</v>
       </c>
       <c r="EQ30" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -14187,10 +14187,10 @@
         <v>0</v>
       </c>
       <c r="BE31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG31" t="n">
         <v>0</v>
@@ -14268,10 +14268,10 @@
         <v>0</v>
       </c>
       <c r="CF31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH31" t="n">
         <v>0</v>
@@ -14457,12 +14457,12 @@
         <v>0</v>
       </c>
       <c r="EQ31" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -14474,10 +14474,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -14525,10 +14525,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -14708,10 +14708,10 @@
         <v>0</v>
       </c>
       <c r="CE32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG32" t="n">
         <v>0</v>
@@ -14900,18 +14900,18 @@
         <v>0</v>
       </c>
       <c r="EQ32" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -15007,10 +15007,10 @@
         <v>0</v>
       </c>
       <c r="AI33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK33" t="n">
         <v>0</v>
@@ -15151,10 +15151,10 @@
         <v>0</v>
       </c>
       <c r="CE33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG33" t="n">
         <v>0</v>
@@ -15343,18 +15343,18 @@
         <v>0</v>
       </c>
       <c r="EQ33" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -15417,10 +15417,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
@@ -15597,10 +15597,10 @@
         <v>0</v>
       </c>
       <c r="CF34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH34" t="n">
         <v>0</v>
@@ -15780,24 +15780,24 @@
         <v>0</v>
       </c>
       <c r="EO34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ34" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -15854,10 +15854,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -16040,10 +16040,10 @@
         <v>0</v>
       </c>
       <c r="CF35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH35" t="n">
         <v>0</v>
@@ -16214,7 +16214,7 @@
         <v>0</v>
       </c>
       <c r="EL35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM35" t="n">
         <v>1</v>
@@ -16223,27 +16223,27 @@
         <v>1</v>
       </c>
       <c r="EO35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ35" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -16303,10 +16303,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36" t="n">
         <v>0</v>
@@ -16480,10 +16480,10 @@
         <v>0</v>
       </c>
       <c r="CE36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG36" t="n">
         <v>0</v>
@@ -16660,7 +16660,7 @@
         <v>0</v>
       </c>
       <c r="EM36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN36" t="n">
         <v>1</v>
@@ -16669,15 +16669,15 @@
         <v>1</v>
       </c>
       <c r="EP36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ36" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -16695,10 +16695,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -16746,10 +16746,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z37" t="n">
         <v>0</v>
@@ -17115,12 +17115,12 @@
         <v>0</v>
       </c>
       <c r="EQ37" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -17159,10 +17159,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -17186,10 +17186,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -17366,10 +17366,10 @@
         <v>0</v>
       </c>
       <c r="CE38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG38" t="n">
         <v>0</v>
@@ -17546,33 +17546,33 @@
         <v>0</v>
       </c>
       <c r="EM38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN38" t="n">
         <v>1</v>
       </c>
       <c r="EO38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP38" t="n">
         <v>0</v>
       </c>
       <c r="EQ38" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -17632,10 +17632,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z39" t="n">
         <v>0</v>
@@ -17806,10 +17806,10 @@
         <v>0</v>
       </c>
       <c r="CD39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF39" t="n">
         <v>0</v>
@@ -17989,7 +17989,7 @@
         <v>0</v>
       </c>
       <c r="EM39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN39" t="n">
         <v>1</v>
@@ -17998,15 +17998,15 @@
         <v>1</v>
       </c>
       <c r="EP39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ39" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -18039,10 +18039,10 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -18075,10 +18075,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z40" t="n">
         <v>0</v>
@@ -18255,10 +18255,10 @@
         <v>0</v>
       </c>
       <c r="CF40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH40" t="n">
         <v>0</v>
@@ -18444,12 +18444,12 @@
         <v>0</v>
       </c>
       <c r="EQ40" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -18467,10 +18467,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -18512,10 +18512,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -18692,10 +18692,10 @@
         <v>0</v>
       </c>
       <c r="CD41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF41" t="n">
         <v>0</v>
@@ -18872,36 +18872,36 @@
         <v>0</v>
       </c>
       <c r="EL41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM41" t="n">
         <v>1</v>
       </c>
       <c r="EN41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP41" t="n">
         <v>1</v>
       </c>
       <c r="EQ41" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -18958,10 +18958,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -19138,10 +19138,10 @@
         <v>0</v>
       </c>
       <c r="CE42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG42" t="n">
         <v>0</v>
@@ -19321,21 +19321,21 @@
         <v>0</v>
       </c>
       <c r="EN42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP42" t="n">
         <v>0</v>
       </c>
       <c r="EQ42" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -19353,10 +19353,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -19503,10 +19503,10 @@
         <v>0</v>
       </c>
       <c r="BE43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG43" t="n">
         <v>0</v>
@@ -19584,10 +19584,10 @@
         <v>0</v>
       </c>
       <c r="CF43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH43" t="n">
         <v>0</v>
@@ -19773,12 +19773,12 @@
         <v>0</v>
       </c>
       <c r="EQ43" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -19838,10 +19838,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -19880,10 +19880,10 @@
         <v>0</v>
       </c>
       <c r="AI44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK44" t="n">
         <v>0</v>
@@ -20024,10 +20024,10 @@
         <v>0</v>
       </c>
       <c r="CE44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG44" t="n">
         <v>0</v>
@@ -20204,10 +20204,10 @@
         <v>0</v>
       </c>
       <c r="EM44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO44" t="n">
         <v>0</v>
@@ -20216,15 +20216,15 @@
         <v>0</v>
       </c>
       <c r="EQ44" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -20278,10 +20278,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -20323,10 +20323,10 @@
         <v>0</v>
       </c>
       <c r="AI45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK45" t="n">
         <v>0</v>
@@ -20470,10 +20470,10 @@
         <v>0</v>
       </c>
       <c r="CF45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH45" t="n">
         <v>0</v>
@@ -20653,21 +20653,21 @@
         <v>0</v>
       </c>
       <c r="EO45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ45" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -20721,10 +20721,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -20799,10 +20799,10 @@
         <v>0</v>
       </c>
       <c r="AT46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV46" t="n">
         <v>0</v>
@@ -20919,10 +20919,10 @@
         <v>0</v>
       </c>
       <c r="CH46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ46" t="n">
         <v>0</v>
@@ -21096,21 +21096,21 @@
         <v>0</v>
       </c>
       <c r="EO46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ46" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -21164,10 +21164,10 @@
         <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -21275,10 +21275,10 @@
         <v>0</v>
       </c>
       <c r="BE47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG47" t="n">
         <v>0</v>
@@ -21365,10 +21365,10 @@
         <v>0</v>
       </c>
       <c r="CI47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK47" t="n">
         <v>0</v>
@@ -21539,21 +21539,21 @@
         <v>0</v>
       </c>
       <c r="EO47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ47" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -21607,10 +21607,10 @@
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -21751,10 +21751,10 @@
         <v>0</v>
       </c>
       <c r="BP48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR48" t="n">
         <v>0</v>
@@ -21811,10 +21811,10 @@
         <v>0</v>
       </c>
       <c r="CJ48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL48" t="n">
         <v>0</v>
@@ -21982,21 +21982,21 @@
         <v>0</v>
       </c>
       <c r="EO48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ48" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -22050,10 +22050,10 @@
         <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -22224,10 +22224,10 @@
         <v>0</v>
       </c>
       <c r="BZ49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB49" t="n">
         <v>0</v>
@@ -22257,10 +22257,10 @@
         <v>0</v>
       </c>
       <c r="CK49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM49" t="n">
         <v>0</v>
@@ -22425,21 +22425,21 @@
         <v>0</v>
       </c>
       <c r="EO49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ49" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -22493,10 +22493,10 @@
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -22670,10 +22670,10 @@
         <v>0</v>
       </c>
       <c r="CA50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC50" t="n">
         <v>0</v>
@@ -22703,10 +22703,10 @@
         <v>0</v>
       </c>
       <c r="CL50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN50" t="n">
         <v>0</v>
@@ -22868,21 +22868,21 @@
         <v>0</v>
       </c>
       <c r="EO50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ50" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -22936,10 +22936,10 @@
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -23116,10 +23116,10 @@
         <v>0</v>
       </c>
       <c r="CB51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD51" t="n">
         <v>0</v>
@@ -23149,10 +23149,10 @@
         <v>0</v>
       </c>
       <c r="CM51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO51" t="n">
         <v>0</v>
@@ -23311,21 +23311,21 @@
         <v>0</v>
       </c>
       <c r="EO51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ51" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -23379,10 +23379,10 @@
         <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -23562,10 +23562,10 @@
         <v>0</v>
       </c>
       <c r="CC52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE52" t="n">
         <v>0</v>
@@ -23595,10 +23595,10 @@
         <v>0</v>
       </c>
       <c r="CN52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP52" t="n">
         <v>0</v>
@@ -23754,21 +23754,21 @@
         <v>0</v>
       </c>
       <c r="EO52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ52" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -23822,10 +23822,10 @@
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -23837,10 +23837,10 @@
         <v>0</v>
       </c>
       <c r="Y53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA53" t="n">
         <v>0</v>
@@ -24041,10 +24041,10 @@
         <v>0</v>
       </c>
       <c r="CO53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ53" t="n">
         <v>0</v>
@@ -24197,21 +24197,21 @@
         <v>0</v>
       </c>
       <c r="EO53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ53" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -24265,10 +24265,10 @@
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -24283,10 +24283,10 @@
         <v>0</v>
       </c>
       <c r="Z54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB54" t="n">
         <v>0</v>
@@ -24487,10 +24487,10 @@
         <v>0</v>
       </c>
       <c r="CP54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR54" t="n">
         <v>0</v>
@@ -24640,21 +24640,21 @@
         <v>0</v>
       </c>
       <c r="EO54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ54" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -24708,10 +24708,10 @@
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -24729,10 +24729,10 @@
         <v>0</v>
       </c>
       <c r="AA55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC55" t="n">
         <v>0</v>
@@ -24933,10 +24933,10 @@
         <v>0</v>
       </c>
       <c r="CQ55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS55" t="n">
         <v>0</v>
@@ -25083,21 +25083,21 @@
         <v>0</v>
       </c>
       <c r="EO55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ55" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -25151,10 +25151,10 @@
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
@@ -25175,10 +25175,10 @@
         <v>0</v>
       </c>
       <c r="AB56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -25379,10 +25379,10 @@
         <v>0</v>
       </c>
       <c r="CR56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT56" t="n">
         <v>0</v>
@@ -25526,21 +25526,21 @@
         <v>0</v>
       </c>
       <c r="EO56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ56" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -25621,10 +25621,10 @@
         <v>0</v>
       </c>
       <c r="AC57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE57" t="n">
         <v>0</v>
@@ -25825,10 +25825,10 @@
         <v>0</v>
       </c>
       <c r="CS57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU57" t="n">
         <v>0</v>
@@ -25969,21 +25969,21 @@
         <v>0</v>
       </c>
       <c r="EO57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ57" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -26067,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="AD58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF58" t="n">
         <v>0</v>
@@ -26271,10 +26271,10 @@
         <v>0</v>
       </c>
       <c r="CT58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV58" t="n">
         <v>0</v>
@@ -26412,21 +26412,21 @@
         <v>0</v>
       </c>
       <c r="EO58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ58" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -26480,10 +26480,10 @@
         <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -26513,10 +26513,10 @@
         <v>0</v>
       </c>
       <c r="AE59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG59" t="n">
         <v>0</v>
@@ -26717,10 +26717,10 @@
         <v>0</v>
       </c>
       <c r="CU59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW59" t="n">
         <v>0</v>
@@ -26855,21 +26855,21 @@
         <v>0</v>
       </c>
       <c r="EO59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ59" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -26923,10 +26923,10 @@
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -26959,10 +26959,10 @@
         <v>0</v>
       </c>
       <c r="AF60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH60" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="CV60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX60" t="n">
         <v>0</v>
@@ -27298,21 +27298,21 @@
         <v>0</v>
       </c>
       <c r="EO60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ60" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -27366,10 +27366,10 @@
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -27405,10 +27405,10 @@
         <v>0</v>
       </c>
       <c r="AG61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI61" t="n">
         <v>0</v>
@@ -27609,10 +27609,10 @@
         <v>0</v>
       </c>
       <c r="CW61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY61" t="n">
         <v>0</v>
@@ -27741,21 +27741,21 @@
         <v>0</v>
       </c>
       <c r="EO61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ61" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -27809,10 +27809,10 @@
         <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
@@ -27851,10 +27851,10 @@
         <v>0</v>
       </c>
       <c r="AH62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ62" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="CX62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ62" t="n">
         <v>0</v>
@@ -28184,21 +28184,21 @@
         <v>0</v>
       </c>
       <c r="EO62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ62" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -28252,10 +28252,10 @@
         <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -28300,10 +28300,10 @@
         <v>0</v>
       </c>
       <c r="AJ63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL63" t="n">
         <v>0</v>
@@ -28501,10 +28501,10 @@
         <v>0</v>
       </c>
       <c r="CY63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA63" t="n">
         <v>0</v>
@@ -28627,21 +28627,21 @@
         <v>0</v>
       </c>
       <c r="EO63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ63" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -28695,10 +28695,10 @@
         <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
@@ -28746,10 +28746,10 @@
         <v>0</v>
       </c>
       <c r="AK64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM64" t="n">
         <v>0</v>
@@ -28947,10 +28947,10 @@
         <v>0</v>
       </c>
       <c r="CZ64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB64" t="n">
         <v>0</v>
@@ -29070,21 +29070,21 @@
         <v>0</v>
       </c>
       <c r="EO64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ64" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -29138,10 +29138,10 @@
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V65" t="n">
         <v>0</v>
@@ -29192,10 +29192,10 @@
         <v>0</v>
       </c>
       <c r="AL65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN65" t="n">
         <v>0</v>
@@ -29393,10 +29393,10 @@
         <v>0</v>
       </c>
       <c r="DA65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC65" t="n">
         <v>0</v>
@@ -29513,21 +29513,21 @@
         <v>0</v>
       </c>
       <c r="EO65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ65" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -29581,10 +29581,10 @@
         <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
@@ -29638,10 +29638,10 @@
         <v>0</v>
       </c>
       <c r="AM66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO66" t="n">
         <v>0</v>
@@ -29839,10 +29839,10 @@
         <v>0</v>
       </c>
       <c r="DB66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD66" t="n">
         <v>0</v>
@@ -29956,21 +29956,21 @@
         <v>0</v>
       </c>
       <c r="EO66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ66" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -30024,10 +30024,10 @@
         <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
@@ -30084,10 +30084,10 @@
         <v>0</v>
       </c>
       <c r="AN67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP67" t="n">
         <v>0</v>
@@ -30285,10 +30285,10 @@
         <v>0</v>
       </c>
       <c r="DC67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE67" t="n">
         <v>0</v>
@@ -30399,21 +30399,21 @@
         <v>0</v>
       </c>
       <c r="EO67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ67" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -30467,10 +30467,10 @@
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
@@ -30530,10 +30530,10 @@
         <v>0</v>
       </c>
       <c r="AO68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ68" t="n">
         <v>0</v>
@@ -30731,10 +30731,10 @@
         <v>0</v>
       </c>
       <c r="DD68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF68" t="n">
         <v>0</v>
@@ -30842,21 +30842,21 @@
         <v>0</v>
       </c>
       <c r="EO68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ68" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -30910,10 +30910,10 @@
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
@@ -30976,10 +30976,10 @@
         <v>0</v>
       </c>
       <c r="AP69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR69" t="n">
         <v>0</v>
@@ -31177,10 +31177,10 @@
         <v>0</v>
       </c>
       <c r="DE69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG69" t="n">
         <v>0</v>
@@ -31285,21 +31285,21 @@
         <v>0</v>
       </c>
       <c r="EO69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ69" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -31353,10 +31353,10 @@
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V70" t="n">
         <v>0</v>
@@ -31422,10 +31422,10 @@
         <v>0</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS70" t="n">
         <v>0</v>
@@ -31623,10 +31623,10 @@
         <v>0</v>
       </c>
       <c r="DF70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DH70" t="n">
         <v>0</v>
@@ -31728,21 +31728,21 @@
         <v>0</v>
       </c>
       <c r="EO70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ70" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -31796,10 +31796,10 @@
         <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
@@ -31868,10 +31868,10 @@
         <v>0</v>
       </c>
       <c r="AR71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT71" t="n">
         <v>0</v>
@@ -32069,10 +32069,10 @@
         <v>0</v>
       </c>
       <c r="DG71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI71" t="n">
         <v>0</v>
@@ -32171,21 +32171,21 @@
         <v>0</v>
       </c>
       <c r="EO71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ71" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -32239,10 +32239,10 @@
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V72" t="n">
         <v>0</v>
@@ -32314,10 +32314,10 @@
         <v>0</v>
       </c>
       <c r="AS72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU72" t="n">
         <v>0</v>
@@ -32515,10 +32515,10 @@
         <v>0</v>
       </c>
       <c r="DH72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ72" t="n">
         <v>0</v>
@@ -32614,21 +32614,21 @@
         <v>0</v>
       </c>
       <c r="EO72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ72" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -32682,10 +32682,10 @@
         <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V73" t="n">
         <v>0</v>
@@ -32763,10 +32763,10 @@
         <v>0</v>
       </c>
       <c r="AU73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW73" t="n">
         <v>0</v>
@@ -32961,10 +32961,10 @@
         <v>0</v>
       </c>
       <c r="DI73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK73" t="n">
         <v>0</v>
@@ -33057,21 +33057,21 @@
         <v>0</v>
       </c>
       <c r="EO73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ73" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -33125,10 +33125,10 @@
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V74" t="n">
         <v>0</v>
@@ -33209,10 +33209,10 @@
         <v>0</v>
       </c>
       <c r="AV74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX74" t="n">
         <v>0</v>
@@ -33407,10 +33407,10 @@
         <v>0</v>
       </c>
       <c r="DJ74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL74" t="n">
         <v>0</v>
@@ -33500,21 +33500,21 @@
         <v>0</v>
       </c>
       <c r="EO74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ74" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -33568,10 +33568,10 @@
         <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V75" t="n">
         <v>0</v>
@@ -33655,10 +33655,10 @@
         <v>0</v>
       </c>
       <c r="AW75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY75" t="n">
         <v>0</v>
@@ -33853,10 +33853,10 @@
         <v>0</v>
       </c>
       <c r="DK75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DL75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM75" t="n">
         <v>0</v>
@@ -33943,21 +33943,21 @@
         <v>0</v>
       </c>
       <c r="EO75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ75" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -34011,10 +34011,10 @@
         <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V76" t="n">
         <v>0</v>
@@ -34101,10 +34101,10 @@
         <v>0</v>
       </c>
       <c r="AX76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ76" t="n">
         <v>0</v>
@@ -34299,10 +34299,10 @@
         <v>0</v>
       </c>
       <c r="DL76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN76" t="n">
         <v>0</v>
@@ -34386,21 +34386,21 @@
         <v>0</v>
       </c>
       <c r="EO76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ76" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -34454,10 +34454,10 @@
         <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V77" t="n">
         <v>0</v>
@@ -34547,10 +34547,10 @@
         <v>0</v>
       </c>
       <c r="AY77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA77" t="n">
         <v>0</v>
@@ -34745,10 +34745,10 @@
         <v>0</v>
       </c>
       <c r="DM77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO77" t="n">
         <v>0</v>
@@ -34829,21 +34829,21 @@
         <v>0</v>
       </c>
       <c r="EO77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ77" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -34897,10 +34897,10 @@
         <v>0</v>
       </c>
       <c r="T78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V78" t="n">
         <v>0</v>
@@ -34993,10 +34993,10 @@
         <v>0</v>
       </c>
       <c r="AZ78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB78" t="n">
         <v>0</v>
@@ -35191,10 +35191,10 @@
         <v>0</v>
       </c>
       <c r="DN78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP78" t="n">
         <v>0</v>
@@ -35272,21 +35272,21 @@
         <v>0</v>
       </c>
       <c r="EO78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ78" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -35340,10 +35340,10 @@
         <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V79" t="n">
         <v>0</v>
@@ -35439,10 +35439,10 @@
         <v>0</v>
       </c>
       <c r="BA79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC79" t="n">
         <v>0</v>
@@ -35637,10 +35637,10 @@
         <v>0</v>
       </c>
       <c r="DO79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ79" t="n">
         <v>0</v>
@@ -35715,21 +35715,21 @@
         <v>0</v>
       </c>
       <c r="EO79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ79" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -35783,10 +35783,10 @@
         <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V80" t="n">
         <v>0</v>
@@ -35885,10 +35885,10 @@
         <v>0</v>
       </c>
       <c r="BB80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD80" t="n">
         <v>0</v>
@@ -36083,10 +36083,10 @@
         <v>0</v>
       </c>
       <c r="DP80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DQ80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR80" t="n">
         <v>0</v>
@@ -36158,21 +36158,21 @@
         <v>0</v>
       </c>
       <c r="EO80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ80" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -36226,10 +36226,10 @@
         <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V81" t="n">
         <v>0</v>
@@ -36331,10 +36331,10 @@
         <v>0</v>
       </c>
       <c r="BC81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE81" t="n">
         <v>0</v>
@@ -36529,10 +36529,10 @@
         <v>0</v>
       </c>
       <c r="DQ81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS81" t="n">
         <v>0</v>
@@ -36601,21 +36601,21 @@
         <v>0</v>
       </c>
       <c r="EO81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ81" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -36669,10 +36669,10 @@
         <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V82" t="n">
         <v>0</v>
@@ -36777,10 +36777,10 @@
         <v>0</v>
       </c>
       <c r="BD82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF82" t="n">
         <v>0</v>
@@ -36975,10 +36975,10 @@
         <v>0</v>
       </c>
       <c r="DR82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT82" t="n">
         <v>0</v>
@@ -37044,21 +37044,21 @@
         <v>0</v>
       </c>
       <c r="EO82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ82" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -37112,10 +37112,10 @@
         <v>0</v>
       </c>
       <c r="T83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V83" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="BF83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH83" t="n">
         <v>0</v>
@@ -37421,10 +37421,10 @@
         <v>0</v>
       </c>
       <c r="DS83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU83" t="n">
         <v>0</v>
@@ -37487,21 +37487,21 @@
         <v>0</v>
       </c>
       <c r="EO83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ83" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -37555,10 +37555,10 @@
         <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V84" t="n">
         <v>0</v>
@@ -37672,10 +37672,10 @@
         <v>0</v>
       </c>
       <c r="BG84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI84" t="n">
         <v>0</v>
@@ -37867,10 +37867,10 @@
         <v>0</v>
       </c>
       <c r="DT84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV84" t="n">
         <v>0</v>
@@ -37930,21 +37930,21 @@
         <v>0</v>
       </c>
       <c r="EO84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ84" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -37998,10 +37998,10 @@
         <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V85" t="n">
         <v>0</v>
@@ -38118,10 +38118,10 @@
         <v>0</v>
       </c>
       <c r="BH85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ85" t="n">
         <v>0</v>
@@ -38313,10 +38313,10 @@
         <v>0</v>
       </c>
       <c r="DU85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW85" t="n">
         <v>0</v>
@@ -38373,21 +38373,21 @@
         <v>0</v>
       </c>
       <c r="EO85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ85" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -38441,10 +38441,10 @@
         <v>0</v>
       </c>
       <c r="T86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V86" t="n">
         <v>0</v>
@@ -38564,10 +38564,10 @@
         <v>0</v>
       </c>
       <c r="BI86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK86" t="n">
         <v>0</v>
@@ -38759,10 +38759,10 @@
         <v>0</v>
       </c>
       <c r="DV86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX86" t="n">
         <v>0</v>
@@ -38816,21 +38816,21 @@
         <v>0</v>
       </c>
       <c r="EO86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ86" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -38884,10 +38884,10 @@
         <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V87" t="n">
         <v>0</v>
@@ -39010,10 +39010,10 @@
         <v>0</v>
       </c>
       <c r="BJ87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL87" t="n">
         <v>0</v>
@@ -39205,10 +39205,10 @@
         <v>0</v>
       </c>
       <c r="DW87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY87" t="n">
         <v>0</v>
@@ -39259,21 +39259,21 @@
         <v>0</v>
       </c>
       <c r="EO87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ87" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -39327,10 +39327,10 @@
         <v>0</v>
       </c>
       <c r="T88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V88" t="n">
         <v>0</v>
@@ -39456,10 +39456,10 @@
         <v>0</v>
       </c>
       <c r="BK88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM88" t="n">
         <v>0</v>
@@ -39651,10 +39651,10 @@
         <v>0</v>
       </c>
       <c r="DX88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ88" t="n">
         <v>0</v>
@@ -39702,21 +39702,21 @@
         <v>0</v>
       </c>
       <c r="EO88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ88" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -39770,10 +39770,10 @@
         <v>0</v>
       </c>
       <c r="T89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V89" t="n">
         <v>0</v>
@@ -39902,10 +39902,10 @@
         <v>0</v>
       </c>
       <c r="BL89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN89" t="n">
         <v>0</v>
@@ -40097,10 +40097,10 @@
         <v>0</v>
       </c>
       <c r="DY89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA89" t="n">
         <v>0</v>
@@ -40145,21 +40145,21 @@
         <v>0</v>
       </c>
       <c r="EO89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ89" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -40213,10 +40213,10 @@
         <v>0</v>
       </c>
       <c r="T90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V90" t="n">
         <v>0</v>
@@ -40348,10 +40348,10 @@
         <v>0</v>
       </c>
       <c r="BM90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO90" t="n">
         <v>0</v>
@@ -40543,10 +40543,10 @@
         <v>0</v>
       </c>
       <c r="DZ90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB90" t="n">
         <v>0</v>
@@ -40588,21 +40588,21 @@
         <v>0</v>
       </c>
       <c r="EO90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ90" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -40656,10 +40656,10 @@
         <v>0</v>
       </c>
       <c r="T91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V91" t="n">
         <v>0</v>
@@ -40794,10 +40794,10 @@
         <v>0</v>
       </c>
       <c r="BN91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP91" t="n">
         <v>0</v>
@@ -40989,10 +40989,10 @@
         <v>0</v>
       </c>
       <c r="EA91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EB91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC91" t="n">
         <v>0</v>
@@ -41031,21 +41031,21 @@
         <v>0</v>
       </c>
       <c r="EO91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ91" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -41099,10 +41099,10 @@
         <v>0</v>
       </c>
       <c r="T92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V92" t="n">
         <v>0</v>
@@ -41240,10 +41240,10 @@
         <v>0</v>
       </c>
       <c r="BO92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ92" t="n">
         <v>0</v>
@@ -41435,10 +41435,10 @@
         <v>0</v>
       </c>
       <c r="EB92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED92" t="n">
         <v>0</v>
@@ -41474,21 +41474,21 @@
         <v>0</v>
       </c>
       <c r="EO92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ92" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -41542,10 +41542,10 @@
         <v>0</v>
       </c>
       <c r="T93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V93" t="n">
         <v>0</v>
@@ -41689,10 +41689,10 @@
         <v>0</v>
       </c>
       <c r="BQ93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS93" t="n">
         <v>0</v>
@@ -41881,10 +41881,10 @@
         <v>0</v>
       </c>
       <c r="EC93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ED93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE93" t="n">
         <v>0</v>
@@ -41917,21 +41917,21 @@
         <v>0</v>
       </c>
       <c r="EO93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ93" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -41985,10 +41985,10 @@
         <v>0</v>
       </c>
       <c r="T94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V94" t="n">
         <v>0</v>
@@ -42135,10 +42135,10 @@
         <v>0</v>
       </c>
       <c r="BR94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT94" t="n">
         <v>0</v>
@@ -42327,10 +42327,10 @@
         <v>0</v>
       </c>
       <c r="ED94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF94" t="n">
         <v>0</v>
@@ -42360,21 +42360,21 @@
         <v>0</v>
       </c>
       <c r="EO94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ94" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -42428,10 +42428,10 @@
         <v>0</v>
       </c>
       <c r="T95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V95" t="n">
         <v>0</v>
@@ -42581,10 +42581,10 @@
         <v>0</v>
       </c>
       <c r="BS95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU95" t="n">
         <v>0</v>
@@ -42773,10 +42773,10 @@
         <v>0</v>
       </c>
       <c r="EE95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG95" t="n">
         <v>0</v>
@@ -42803,21 +42803,21 @@
         <v>0</v>
       </c>
       <c r="EO95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ95" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -42871,10 +42871,10 @@
         <v>0</v>
       </c>
       <c r="T96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V96" t="n">
         <v>0</v>
@@ -43027,10 +43027,10 @@
         <v>0</v>
       </c>
       <c r="BT96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV96" t="n">
         <v>0</v>
@@ -43219,10 +43219,10 @@
         <v>0</v>
       </c>
       <c r="EF96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH96" t="n">
         <v>0</v>
@@ -43246,21 +43246,21 @@
         <v>0</v>
       </c>
       <c r="EO96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ96" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -43314,10 +43314,10 @@
         <v>0</v>
       </c>
       <c r="T97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V97" t="n">
         <v>0</v>
@@ -43473,10 +43473,10 @@
         <v>0</v>
       </c>
       <c r="BU97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW97" t="n">
         <v>0</v>
@@ -43665,10 +43665,10 @@
         <v>0</v>
       </c>
       <c r="EG97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EH97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI97" t="n">
         <v>0</v>
@@ -43689,21 +43689,21 @@
         <v>0</v>
       </c>
       <c r="EO97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ97" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -43757,10 +43757,10 @@
         <v>0</v>
       </c>
       <c r="T98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V98" t="n">
         <v>0</v>
@@ -43919,10 +43919,10 @@
         <v>0</v>
       </c>
       <c r="BV98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX98" t="n">
         <v>0</v>
@@ -44111,10 +44111,10 @@
         <v>0</v>
       </c>
       <c r="EH98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EJ98" t="n">
         <v>0</v>
@@ -44132,21 +44132,21 @@
         <v>0</v>
       </c>
       <c r="EO98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ98" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -44200,10 +44200,10 @@
         <v>0</v>
       </c>
       <c r="T99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V99" t="n">
         <v>0</v>
@@ -44365,10 +44365,10 @@
         <v>0</v>
       </c>
       <c r="BW99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY99" t="n">
         <v>0</v>
@@ -44557,10 +44557,10 @@
         <v>0</v>
       </c>
       <c r="EI99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK99" t="n">
         <v>0</v>
@@ -44575,21 +44575,21 @@
         <v>0</v>
       </c>
       <c r="EO99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ99" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -44643,10 +44643,10 @@
         <v>0</v>
       </c>
       <c r="T100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V100" t="n">
         <v>0</v>
@@ -44811,10 +44811,10 @@
         <v>0</v>
       </c>
       <c r="BX100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ100" t="n">
         <v>0</v>
@@ -45003,10 +45003,10 @@
         <v>0</v>
       </c>
       <c r="EJ100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL100" t="n">
         <v>0</v>
@@ -45018,21 +45018,21 @@
         <v>0</v>
       </c>
       <c r="EO100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ100" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -45086,10 +45086,10 @@
         <v>0</v>
       </c>
       <c r="T101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V101" t="n">
         <v>0</v>
@@ -45257,10 +45257,10 @@
         <v>0</v>
       </c>
       <c r="BY101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA101" t="n">
         <v>0</v>
@@ -45449,10 +45449,10 @@
         <v>0</v>
       </c>
       <c r="EK101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EL101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM101" t="n">
         <v>0</v>
@@ -45461,13 +45461,13 @@
         <v>0</v>
       </c>
       <c r="EO101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ101" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
